--- a/Proben.xlsx
+++ b/Proben.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
   <si>
     <t>100-115</t>
   </si>
@@ -216,6 +213,24 @@
   </si>
   <si>
     <t>Verzeichnis</t>
+  </si>
+  <si>
+    <t>Probennummer</t>
+  </si>
+  <si>
+    <t>tme</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>son_long</t>
   </si>
 </sst>
 </file>
@@ -247,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -255,11 +270,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +332,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -550,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,54 +667,72 @@
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="M1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <f>IF(F2&lt;&gt;"",$B2,"")</f>
@@ -621,25 +742,61 @@
         <f t="shared" ref="I2:I27" si="0">IF(G2&lt;&gt;"",$B2,"")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H27" si="1">IF(F3&lt;&gt;"",$B3,"")</f>
@@ -649,25 +806,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="9">
+        <v>400</v>
+      </c>
+      <c r="N3" s="10">
+        <v>400</v>
+      </c>
+      <c r="O3" s="13">
+        <v>4</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
@@ -677,22 +853,41 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="9">
+        <v>80</v>
+      </c>
+      <c r="N4" s="10">
+        <v>80</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -702,25 +897,44 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="9">
+        <v>82</v>
+      </c>
+      <c r="N5" s="10">
+        <v>82</v>
+      </c>
+      <c r="O5" s="13">
+        <v>4</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
@@ -730,25 +944,53 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9">
+        <v>162</v>
+      </c>
+      <c r="N6" s="10">
+        <v>162</v>
+      </c>
+      <c r="O6" s="13">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>162</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
@@ -758,25 +1000,53 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="9">
+        <v>162</v>
+      </c>
+      <c r="N7" s="10">
+        <v>162</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>162</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
@@ -786,25 +1056,57 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9">
+        <v>162</v>
+      </c>
+      <c r="N8" s="10">
+        <v>162</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>162</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
@@ -814,25 +1116,61 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="9">
+        <v>162</v>
+      </c>
+      <c r="N9" s="10">
+        <v>162</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>162</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9">
+        <v>162</v>
+      </c>
+      <c r="T9" s="10">
+        <v>162</v>
+      </c>
+      <c r="U9" s="9">
+        <v>162</v>
+      </c>
+      <c r="V9" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
@@ -842,28 +1180,56 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="9">
+        <v>162</v>
+      </c>
+      <c r="N10" s="10">
+        <v>162</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>162</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
@@ -873,8 +1239,36 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="9">
+        <v>162</v>
+      </c>
+      <c r="N11" s="10">
+        <v>162</v>
+      </c>
+      <c r="O11" s="13">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>162</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -882,16 +1276,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -901,28 +1295,64 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="9">
+        <v>233</v>
+      </c>
+      <c r="N12" s="10">
+        <v>233</v>
+      </c>
+      <c r="O12" s="13">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>233</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>233</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="9">
+        <v>233</v>
+      </c>
+      <c r="T12" s="10">
+        <v>233</v>
+      </c>
+      <c r="U12" s="9">
+        <v>233</v>
+      </c>
+      <c r="V12" s="10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
@@ -932,28 +1362,64 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>233</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="16">
+        <v>2</v>
+      </c>
+      <c r="P13" s="14">
+        <v>233</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="14">
+        <v>2</v>
+      </c>
+      <c r="S13" s="15">
+        <v>233</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="15">
+        <v>233</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
@@ -963,8 +1429,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="9"/>
+      <c r="O14" s="1">
+        <f>SUM(M3:O13)</f>
+        <v>3795</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="R14" s="1">
+        <f>SUM(P3:R13)</f>
+        <v>2661</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="1">
+        <f>SUM(S3:T13)</f>
+        <v>1023</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="1">
+        <f>SUM(U3:V13)</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>24</v>
       </c>
@@ -972,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -992,27 +1478,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
@@ -1025,25 +1511,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
@@ -1062,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1084,25 +1570,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
@@ -1115,25 +1601,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
@@ -1146,25 +1632,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
@@ -1177,22 +1663,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1205,22 +1691,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1233,22 +1719,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1261,22 +1747,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1289,22 +1775,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1317,22 +1803,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1343,221 +1829,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
         <f>SUM(H2:H27)</f>
         <v>233</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I28" s="2">
         <f>SUM(I2:I27)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="1">
-        <v>400</v>
-      </c>
-      <c r="D32" s="1">
-        <v>400</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1">
-        <v>80</v>
-      </c>
-      <c r="D33" s="1">
-        <v>80</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1">
-        <v>82</v>
-      </c>
-      <c r="D34" s="1">
-        <v>82</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>162</v>
-      </c>
-      <c r="D35" s="1">
-        <v>162</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>162</v>
-      </c>
-      <c r="D36" s="1">
-        <v>162</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>162</v>
-      </c>
-      <c r="D37" s="1">
-        <v>162</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1">
-        <v>162</v>
-      </c>
-      <c r="D38" s="1">
-        <v>162</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>162</v>
-      </c>
-      <c r="D39" s="1">
-        <v>162</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>162</v>
-      </c>
-      <c r="D40" s="1">
-        <v>162</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>233</v>
-      </c>
-      <c r="D41" s="1">
-        <v>233</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>233</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="U1:V1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proben.xlsx
+++ b/Proben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>100-115</t>
   </si>
@@ -65,9 +65,6 @@
     <t>1G-4G</t>
   </si>
   <si>
-    <t>P1,3,5,8G</t>
-  </si>
-  <si>
     <t>2,4,8</t>
   </si>
   <si>
@@ -134,21 +131,12 @@
     <t>Papierfehler 2 × 2 mm</t>
   </si>
   <si>
-    <t>P2-3</t>
-  </si>
-  <si>
-    <t>P5-6</t>
-  </si>
-  <si>
     <t>Papierfehler 2 × 10 mm</t>
   </si>
   <si>
     <t>P10</t>
   </si>
   <si>
-    <t>P8,11</t>
-  </si>
-  <si>
     <t>P13</t>
   </si>
   <si>
@@ -231,13 +219,37 @@
   </si>
   <si>
     <t>son_long</t>
+  </si>
+  <si>
+    <t>Proben</t>
+  </si>
+  <si>
+    <t>Signale</t>
+  </si>
+  <si>
+    <t>Set - Anzahl Proben</t>
+  </si>
+  <si>
+    <t>Set - Zuordnung</t>
+  </si>
+  <si>
+    <t>P2,P3</t>
+  </si>
+  <si>
+    <t>P5,P6</t>
+  </si>
+  <si>
+    <t>P8,P11</t>
+  </si>
+  <si>
+    <t>P1G,P3G,P5G,P8G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +260,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,17 +354,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -371,6 +379,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -653,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,353 +696,307 @@
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="2"/>
+      <c r="M2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="14"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <f>IF(F2&lt;&gt;"",$B2,"")</f>
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I27" si="0">IF(G2&lt;&gt;"",$B2,"")</f>
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H27" si="1">IF(F3&lt;&gt;"",$B3,"")</f>
-        <v>42</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="9">
-        <v>400</v>
-      </c>
-      <c r="N3" s="10">
-        <v>400</v>
-      </c>
-      <c r="O3" s="13">
-        <v>4</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
+      <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6">
+        <f>IF(F4&lt;&gt;"",$B4,"")</f>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <f>IF(G4&lt;&gt;"",$B4,"")</f>
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="9">
-        <v>80</v>
-      </c>
-      <c r="N4" s="10">
-        <v>80</v>
-      </c>
-      <c r="O4" s="13">
-        <v>2</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="M4" s="6">
+        <v>400</v>
+      </c>
+      <c r="N4" s="7">
+        <v>400</v>
+      </c>
+      <c r="O4" s="9">
+        <v>4</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>87</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <f>IF(F5&lt;&gt;"",$B5,"")</f>
+        <v>42</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(G5&lt;&gt;"",$B5,"")</f>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="9">
-        <v>82</v>
-      </c>
-      <c r="N5" s="10">
-        <v>82</v>
-      </c>
-      <c r="O5" s="13">
-        <v>4</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="M5" s="6">
+        <v>80</v>
+      </c>
+      <c r="N5" s="7">
+        <v>80</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
+        <f>IF(F6&lt;&gt;"",$B6,"")</f>
+        <v>42</v>
+      </c>
+      <c r="I6" s="7">
+        <f>IF(G6&lt;&gt;"",$B6,"")</f>
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="6">
+        <v>82</v>
+      </c>
+      <c r="N6" s="7">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="9">
-        <v>162</v>
-      </c>
-      <c r="N6" s="10">
-        <v>162</v>
-      </c>
-      <c r="O6" s="13">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>162</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6">
+        <f>IF(F7&lt;&gt;"",$B7,"")</f>
+        <v>87</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>IF(G7&lt;&gt;"",$B7,"")</f>
+        <v/>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9">
-        <v>162</v>
-      </c>
-      <c r="N7" s="10">
-        <v>162</v>
-      </c>
-      <c r="O7" s="13">
-        <v>2</v>
+      <c r="M7" s="6">
+        <v>162</v>
+      </c>
+      <c r="N7" s="7">
+        <v>162</v>
+      </c>
+      <c r="O7" s="9">
+        <v>3</v>
       </c>
       <c r="P7" s="1">
         <v>162</v>
@@ -1022,53 +1005,53 @@
         <v>162</v>
       </c>
       <c r="R7" s="1">
-        <v>2</v>
-      </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
+        <f>IF(F8&lt;&gt;"",$B8,"")</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <f>IF(G8&lt;&gt;"",$B8,"")</f>
+        <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="9">
-        <v>162</v>
-      </c>
-      <c r="N8" s="10">
-        <v>162</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="M8" s="6">
+        <v>162</v>
+      </c>
+      <c r="N8" s="7">
+        <v>162</v>
+      </c>
+      <c r="O8" s="9">
         <v>2</v>
       </c>
       <c r="P8" s="1">
@@ -1080,55 +1063,51 @@
       <c r="R8" s="1">
         <v>2</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="9">
-        <v>1</v>
-      </c>
-      <c r="V8" s="10">
-        <v>1</v>
-      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
+        <f>IF(F9&lt;&gt;"",$B9,"")</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <f>IF(G9&lt;&gt;"",$B9,"")</f>
+        <v>12</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="9">
-        <v>162</v>
-      </c>
-      <c r="N9" s="10">
-        <v>162</v>
-      </c>
-      <c r="O9" s="13">
+      <c r="M9" s="6">
+        <v>162</v>
+      </c>
+      <c r="N9" s="7">
+        <v>162</v>
+      </c>
+      <c r="O9" s="9">
         <v>2</v>
       </c>
       <c r="P9" s="1">
@@ -1140,59 +1119,55 @@
       <c r="R9" s="1">
         <v>2</v>
       </c>
-      <c r="S9" s="9">
-        <v>162</v>
-      </c>
-      <c r="T9" s="10">
-        <v>162</v>
-      </c>
-      <c r="U9" s="9">
-        <v>162</v>
-      </c>
-      <c r="V9" s="10">
-        <v>162</v>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
+        <f>IF(F10&lt;&gt;"",$B10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <f>IF(G10&lt;&gt;"",$B10,"")</f>
+        <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="9">
-        <v>162</v>
-      </c>
-      <c r="N10" s="10">
-        <v>162</v>
-      </c>
-      <c r="O10" s="13">
+      <c r="M10" s="6">
+        <v>162</v>
+      </c>
+      <c r="N10" s="7">
+        <v>162</v>
+      </c>
+      <c r="O10" s="9">
         <v>2</v>
       </c>
       <c r="P10" s="1">
@@ -1204,54 +1179,59 @@
       <c r="R10" s="1">
         <v>2</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
+      <c r="S10" s="6">
+        <v>162</v>
+      </c>
+      <c r="T10" s="7">
+        <v>162</v>
+      </c>
+      <c r="U10" s="6">
+        <v>162</v>
+      </c>
+      <c r="V10" s="7">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
+      <c r="C11" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <f>IF(F11&lt;&gt;"",$B11,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <f>IF(G11&lt;&gt;"",$B11,"")</f>
         <v>3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="9">
-        <v>162</v>
-      </c>
-      <c r="N11" s="10">
-        <v>162</v>
-      </c>
-      <c r="O11" s="13">
+      <c r="M11" s="6">
+        <v>162</v>
+      </c>
+      <c r="N11" s="7">
+        <v>162</v>
+      </c>
+      <c r="O11" s="9">
         <v>2</v>
       </c>
       <c r="P11" s="1">
@@ -1263,588 +1243,690 @@
       <c r="R11" s="1">
         <v>2</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
+      <c r="A12" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <f>IF(F12&lt;&gt;"",$B12,"")</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <f>IF(G12&lt;&gt;"",$B12,"")</f>
+        <v>4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="9">
-        <v>233</v>
-      </c>
-      <c r="N12" s="10">
-        <v>233</v>
-      </c>
-      <c r="O12" s="13">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>162</v>
+      </c>
+      <c r="N12" s="7">
+        <v>162</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2</v>
       </c>
       <c r="P12" s="1">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="1">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="R12" s="1">
-        <v>3</v>
-      </c>
-      <c r="S12" s="9">
-        <v>233</v>
-      </c>
-      <c r="T12" s="10">
-        <v>233</v>
-      </c>
-      <c r="U12" s="9">
-        <v>233</v>
-      </c>
-      <c r="V12" s="10">
-        <v>233</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
+        <f>IF(F13&lt;&gt;"",$B13,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <f>IF(G13&lt;&gt;"",$B13,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="6">
         <v>233</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="16">
-        <v>2</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="N13" s="7">
         <v>233</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="14">
-        <v>2</v>
-      </c>
-      <c r="S13" s="15">
+      <c r="O13" s="9">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
         <v>233</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="15">
+      <c r="Q13" s="1">
         <v>233</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>66</v>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>233</v>
+      </c>
+      <c r="T13" s="7">
+        <v>233</v>
+      </c>
+      <c r="U13" s="6">
+        <v>233</v>
+      </c>
+      <c r="V13" s="7">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+      <c r="A14" s="1">
+        <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="O14" s="1">
-        <f>SUM(M3:O13)</f>
-        <v>3795</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="R14" s="1">
-        <f>SUM(P3:R13)</f>
-        <v>2661</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="1">
-        <f>SUM(S3:T13)</f>
-        <v>1023</v>
-      </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="1">
-        <f>SUM(U3:V13)</f>
-        <v>1025</v>
+        <v>25</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>IF(F14&lt;&gt;"",$B14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="7">
+        <f>IF(G14&lt;&gt;"",$B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>233</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="10">
+        <v>2</v>
+      </c>
+      <c r="S14" s="11">
+        <v>233</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="11">
+        <v>233</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <f>IF(F15&lt;&gt;"",$B15,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <f>IF(G15&lt;&gt;"",$B15,"")</f>
+        <v>3</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="O15" s="1">
+        <f>SUM(M4:O14)</f>
+        <v>3795</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="R15" s="1">
+        <f>SUM(P4:R14)</f>
+        <v>2661</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="1">
+        <f>SUM(S4:T14)</f>
+        <v>1023</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="1">
+        <f>SUM(U4:V14)</f>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
+        <f>IF(F16&lt;&gt;"",$B16,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <f>IF(G16&lt;&gt;"",$B16,"")</f>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
+      <c r="A17" s="1">
+        <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>IF(F17&lt;&gt;"",$B17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="7">
+        <f>IF(G17&lt;&gt;"",$B17,"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>34</v>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <f>IF(F18&lt;&gt;"",$B18,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <f>IF(G18&lt;&gt;"",$B18,"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <f>IF(F19&lt;&gt;"",$B19,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <f>IF(G19&lt;&gt;"",$B19,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>IF(F20&lt;&gt;"",$B20,"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="7">
+        <f>IF(G20&lt;&gt;"",$B20,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <f>IF(F21&lt;&gt;"",$B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <f>IF(G21&lt;&gt;"",$B21,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6">
+        <f>IF(F22&lt;&gt;"",$B22,"")</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <f>IF(G22&lt;&gt;"",$B22,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="6">
+        <f>IF(F23&lt;&gt;"",$B23,"")</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <f>IF(G23&lt;&gt;"",$B23,"")</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>IF(F24&lt;&gt;"",$B24,"")</f>
         <v/>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="I24" s="7">
+        <f>IF(G24&lt;&gt;"",$B24,"")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="1">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>IF(F25&lt;&gt;"",$B25,"")</f>
         <v/>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
+      <c r="I25" s="7">
+        <f>IF(G25&lt;&gt;"",$B25,"")</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
+      <c r="C26" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="1">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>IF(F26&lt;&gt;"",$B26,"")</f>
         <v/>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
+      <c r="I26" s="7">
+        <f>IF(G26&lt;&gt;"",$B26,"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>IF(F27&lt;&gt;"",$B27,"")</f>
         <v/>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
+      <c r="I27" s="7">
+        <f>IF(G27&lt;&gt;"",$B27,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f>IF(F28&lt;&gt;"",$B28,"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="7">
+        <f>IF(G28&lt;&gt;"",$B28,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="2">
-        <f>SUM(H2:H27)</f>
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f>IF(F29&lt;&gt;"",$B29,"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="10">
+        <f>IF(G29&lt;&gt;"",$B29,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="18">
+        <f>SUM(H4:H29)</f>
         <v>233</v>
       </c>
-      <c r="I28" s="2">
-        <f>SUM(I2:I27)</f>
+      <c r="I30" s="19">
+        <f>SUM(I4:I29)</f>
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="U1:V1"/>
+  <mergeCells count="8">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Proben.xlsx
+++ b/Proben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>100-115</t>
   </si>
@@ -152,79 +152,10 @@
     <t>Öl kontaminiert</t>
   </si>
   <si>
-    <t>OT_110705</t>
-  </si>
-  <si>
-    <t>OT_160805</t>
-  </si>
-  <si>
-    <t>OT_180705</t>
-  </si>
-  <si>
-    <t>MT1_050805</t>
-  </si>
-  <si>
-    <t>MT2_180805</t>
-  </si>
-  <si>
-    <t>MT3_070905</t>
-  </si>
-  <si>
-    <t>MT4_140905</t>
-  </si>
-  <si>
-    <t>MT5_230905</t>
-  </si>
-  <si>
-    <t>MT6_240905</t>
-  </si>
-  <si>
-    <t>MT7_100306</t>
-  </si>
-  <si>
-    <t>MT8_270406</t>
-  </si>
-  <si>
-    <t>ch1</t>
-  </si>
-  <si>
-    <t>ch2</t>
-  </si>
-  <si>
-    <t>ch3</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Verzeichnis</t>
-  </si>
-  <si>
     <t>Probennummer</t>
   </si>
   <si>
-    <t>tme</t>
-  </si>
-  <si>
-    <t>wav</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>son_long</t>
-  </si>
-  <si>
     <t>Proben</t>
-  </si>
-  <si>
-    <t>Signale</t>
   </si>
   <si>
     <t>Set - Anzahl Proben</t>
@@ -282,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,31 +250,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,19 +277,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,20 +295,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,68 +589,38 @@
     <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="14"/>
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -780,44 +646,8 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,34 +667,15 @@
         <v>8</v>
       </c>
       <c r="H4" s="6">
-        <f>IF(F4&lt;&gt;"",$B4,"")</f>
+        <f t="shared" ref="H4:H29" si="0">IF(F4&lt;&gt;"",$B4,"")</f>
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <f>IF(G4&lt;&gt;"",$B4,"")</f>
+        <f t="shared" ref="I4:I29" si="1">IF(G4&lt;&gt;"",$B4,"")</f>
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="6">
-        <v>400</v>
-      </c>
-      <c r="N4" s="7">
-        <v>400</v>
-      </c>
-      <c r="O4" s="9">
-        <v>4</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,34 +695,15 @@
         <v>8</v>
       </c>
       <c r="H5" s="6">
-        <f>IF(F5&lt;&gt;"",$B5,"")</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I5" s="7">
-        <f>IF(G5&lt;&gt;"",$B5,"")</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="6">
-        <v>80</v>
-      </c>
-      <c r="N5" s="7">
-        <v>80</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,34 +723,15 @@
         <v>8</v>
       </c>
       <c r="H6" s="6">
-        <f>IF(F6&lt;&gt;"",$B6,"")</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I6" s="7">
-        <f>IF(G6&lt;&gt;"",$B6,"")</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="6">
-        <v>82</v>
-      </c>
-      <c r="N6" s="7">
-        <v>82</v>
-      </c>
-      <c r="O6" s="9">
-        <v>4</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,43 +749,15 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <f>IF(F7&lt;&gt;"",$B7,"")</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f>IF(G7&lt;&gt;"",$B7,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="6">
-        <v>162</v>
-      </c>
-      <c r="N7" s="7">
-        <v>162</v>
-      </c>
-      <c r="O7" s="9">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>162</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,43 +777,15 @@
         <v>8</v>
       </c>
       <c r="H8" s="6">
-        <f>IF(F8&lt;&gt;"",$B8,"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <f>IF(G8&lt;&gt;"",$B8,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="6">
-        <v>162</v>
-      </c>
-      <c r="N8" s="7">
-        <v>162</v>
-      </c>
-      <c r="O8" s="9">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>162</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1088,47 +805,15 @@
         <v>8</v>
       </c>
       <c r="H9" s="6">
-        <f>IF(F9&lt;&gt;"",$B9,"")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <f>IF(G9&lt;&gt;"",$B9,"")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="6">
-        <v>162</v>
-      </c>
-      <c r="N9" s="7">
-        <v>162</v>
-      </c>
-      <c r="O9" s="9">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>162</v>
-      </c>
-      <c r="R9" s="1">
-        <v>2</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="6">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1148,51 +833,15 @@
         <v>8</v>
       </c>
       <c r="H10" s="6">
-        <f>IF(F10&lt;&gt;"",$B10,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <f>IF(G10&lt;&gt;"",$B10,"")</f>
-        <v>3</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6">
-        <v>162</v>
-      </c>
-      <c r="N10" s="7">
-        <v>162</v>
-      </c>
-      <c r="O10" s="9">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>162</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2</v>
-      </c>
-      <c r="S10" s="6">
-        <v>162</v>
-      </c>
-      <c r="T10" s="7">
-        <v>162</v>
-      </c>
-      <c r="U10" s="6">
-        <v>162</v>
-      </c>
-      <c r="V10" s="7">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1212,45 +861,17 @@
         <v>8</v>
       </c>
       <c r="H11" s="6">
-        <f>IF(F11&lt;&gt;"",$B11,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <f>IF(G11&lt;&gt;"",$B11,"")</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="6">
-        <v>162</v>
-      </c>
-      <c r="N11" s="7">
-        <v>162</v>
-      </c>
-      <c r="O11" s="9">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>162</v>
-      </c>
-      <c r="R11" s="1">
-        <v>2</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1268,43 +889,15 @@
         <v>8</v>
       </c>
       <c r="H12" s="6">
-        <f>IF(F12&lt;&gt;"",$B12,"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <f>IF(G12&lt;&gt;"",$B12,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="6">
-        <v>162</v>
-      </c>
-      <c r="N12" s="7">
-        <v>162</v>
-      </c>
-      <c r="O12" s="9">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>162</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>162</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1327,51 +920,15 @@
         <v>8</v>
       </c>
       <c r="H13" s="6">
-        <f>IF(F13&lt;&gt;"",$B13,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <f>IF(G13&lt;&gt;"",$B13,"")</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="6">
-        <v>233</v>
-      </c>
-      <c r="N13" s="7">
-        <v>233</v>
-      </c>
-      <c r="O13" s="9">
-        <v>3</v>
-      </c>
-      <c r="P13" s="1">
-        <v>233</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>233</v>
-      </c>
-      <c r="R13" s="1">
-        <v>3</v>
-      </c>
-      <c r="S13" s="6">
-        <v>233</v>
-      </c>
-      <c r="T13" s="7">
-        <v>233</v>
-      </c>
-      <c r="U13" s="6">
-        <v>233</v>
-      </c>
-      <c r="V13" s="7">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1392,51 +949,15 @@
         <v>8</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>IF(F14&lt;&gt;"",$B14,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" s="7">
-        <f>IF(G14&lt;&gt;"",$B14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="11">
-        <v>233</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="12">
-        <v>2</v>
-      </c>
-      <c r="P14" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="10">
-        <v>2</v>
-      </c>
-      <c r="S14" s="11">
-        <v>233</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="11">
-        <v>233</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1459,35 +980,15 @@
         <v>8</v>
       </c>
       <c r="H15" s="6">
-        <f>IF(F15&lt;&gt;"",$B15,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <f>IF(G15&lt;&gt;"",$B15,"")</f>
-        <v>3</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="O15" s="1">
-        <f>SUM(M4:O14)</f>
-        <v>3795</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="R15" s="1">
-        <f>SUM(P4:R14)</f>
-        <v>2661</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="1">
-        <f>SUM(S4:T14)</f>
-        <v>1023</v>
-      </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="1">
-        <f>SUM(U4:V14)</f>
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1510,11 +1011,11 @@
         <v>8</v>
       </c>
       <c r="H16" s="6">
-        <f>IF(F16&lt;&gt;"",$B16,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <f>IF(G16&lt;&gt;"",$B16,"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1539,11 +1040,11 @@
         <v>8</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>IF(F17&lt;&gt;"",$B17,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" s="7">
-        <f>IF(G17&lt;&gt;"",$B17,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1570,11 +1071,11 @@
         <v>8</v>
       </c>
       <c r="H18" s="6">
-        <f>IF(F18&lt;&gt;"",$B18,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <f>IF(G18&lt;&gt;"",$B18,"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1601,11 +1102,11 @@
         <v>8</v>
       </c>
       <c r="H19" s="6">
-        <f>IF(F19&lt;&gt;"",$B19,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <f>IF(G19&lt;&gt;"",$B19,"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1630,11 +1131,11 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>IF(F20&lt;&gt;"",$B20,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I20" s="7">
-        <f>IF(G20&lt;&gt;"",$B20,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1661,11 +1162,11 @@
         <v>8</v>
       </c>
       <c r="H21" s="6">
-        <f>IF(F21&lt;&gt;"",$B21,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <f>IF(G21&lt;&gt;"",$B21,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1692,11 +1193,11 @@
         <v>8</v>
       </c>
       <c r="H22" s="6">
-        <f>IF(F22&lt;&gt;"",$B22,"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <f>IF(G22&lt;&gt;"",$B22,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1723,17 +1224,17 @@
         <v>8</v>
       </c>
       <c r="H23" s="6">
-        <f>IF(F23&lt;&gt;"",$B23,"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <f>IF(G23&lt;&gt;"",$B23,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1752,17 +1253,17 @@
         <v>8</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>IF(F24&lt;&gt;"",$B24,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I24" s="7">
-        <f>IF(G24&lt;&gt;"",$B24,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1781,11 +1282,11 @@
         <v>8</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>IF(F25&lt;&gt;"",$B25,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I25" s="7">
-        <f>IF(G25&lt;&gt;"",$B25,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1810,17 +1311,17 @@
         <v>8</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>IF(F26&lt;&gt;"",$B26,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="7">
-        <f>IF(G26&lt;&gt;"",$B26,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1839,11 +1340,11 @@
         <v>8</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>IF(F27&lt;&gt;"",$B27,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I27" s="7">
-        <f>IF(G27&lt;&gt;"",$B27,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1868,63 +1369,58 @@
         <v>8</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>IF(F28&lt;&gt;"",$B28,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I28" s="7">
-        <f>IF(G28&lt;&gt;"",$B28,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>5</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10">
-        <v>11</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="8">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="11" t="str">
-        <f>IF(F29&lt;&gt;"",$B29,"")</f>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="10">
-        <f>IF(G29&lt;&gt;"",$B29,"")</f>
+      <c r="I29" s="8">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="18">
+      <c r="H30" s="10">
         <f>SUM(H4:H29)</f>
         <v>233</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="11">
         <f>SUM(I4:I29)</f>
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:V2"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:V1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
